--- a/JHashimoto.AwsViewer/JHashimoto.AwsViewer.Export.Excel/Templates/aws_resources_template_base.xlsx
+++ b/JHashimoto.AwsViewer/JHashimoto.AwsViewer.Export.Excel/Templates/aws_resources_template_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rep\jhashimoto0518\aws-viewer\JHashimoto.AwsViewer\JHashimoto.AwsViewer.Export.Excel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EB364C-BB6C-44AC-9DAB-26D838B43D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8E003-F2A0-4B83-A154-7AF340D71D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -219,6 +216,10 @@
   </si>
   <si>
     <t>{{items.Name)}}</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="24"/>
   </si>
 </sst>
@@ -1397,12 +1398,12 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1424,114 +1425,114 @@
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
